--- a/biology/Botanique/Pedicularis_gyroflexa/Pedicularis_gyroflexa.xlsx
+++ b/biology/Botanique/Pedicularis_gyroflexa/Pedicularis_gyroflexa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pedicularis gyroflexa, la Pédiculaire arquée, Pédiculaire recourbée ou Pédiculaire fasciculée, est une espèce de plantes herbacées appartenant à la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[1] ou à la famille des Orobanchaceae selon la classification phylogénétique. On la rencontre dans les Alpes occidentales et dans les Pyrénées (une station).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pedicularis gyroflexa, la Pédiculaire arquée, Pédiculaire recourbée ou Pédiculaire fasciculée, est une espèce de plantes herbacées appartenant à la famille des Scrophulariaceae selon la classification classique de Cronquist (1981) ou à la famille des Orobanchaceae selon la classification phylogénétique. On la rencontre dans les Alpes occidentales et dans les Pyrénées (une station).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante haute de 15 à 30 cm ; feuilles de la base pubescentes, grandes, en forme de fer de lance et très divisées ; fleurs roses groupées en haut de la tige ; pétales soudés en tube à la base formant 2 lèvres, la supérieure en forme de bec conique.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses arides, calcaires, de 1 300 à 2 700 m dans le Mercantour.
 Sur les autres projets Wikimedia :
